--- a/Load/src/ontology/Gates/HBDG_data dictionary.xlsx
+++ b/Load/src/ontology/Gates/HBDG_data dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="14420" tabRatio="836" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="7080" windowWidth="25600" windowHeight="7100" tabRatio="836" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gates-edit" sheetId="13" r:id="rId1"/>
@@ -5364,9 +5364,6 @@
     <t>EuPath: # rooms (number of rooms)</t>
   </si>
   <si>
-    <t>EuPath: Roof material (roof material)</t>
-  </si>
-  <si>
     <t>Sanitation facility</t>
   </si>
   <si>
@@ -5428,6 +5425,9 @@
   </si>
   <si>
     <t>proposed values (need to work together with Gates people to harmonize the values</t>
+  </si>
+  <si>
+    <t>EuPath: Floor material (floor material)</t>
   </si>
 </sst>
 </file>
@@ -5710,8 +5710,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1329">
+  <cellStyleXfs count="1363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7166,6 +7200,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7184,11 +7221,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1329">
+  <cellStyles count="1363">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7853,6 +7887,23 @@
     <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8517,6 +8568,23 @@
     <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8849,10 +8917,10 @@
   <dimension ref="A1:P144"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H141" sqref="H2:H141"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8925,7 +8993,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>152</v>
@@ -8934,38 +9002,35 @@
         <v>2</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>1149</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>1319</v>
-      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="O2" s="62" t="s">
-        <v>1186</v>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>152</v>
@@ -8974,19 +9039,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>20</v>
@@ -8996,11 +9061,16 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>152</v>
@@ -9009,35 +9079,35 @@
         <v>2</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1149</v>
+        <v>41</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="47" t="s">
         <v>1323</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>152</v>
@@ -9046,29 +9116,28 @@
         <v>2</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G5" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>1323</v>
+      <c r="J5" s="47" t="s">
+        <v>1322</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
@@ -9110,7 +9179,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>17.2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>152</v>
@@ -9118,39 +9187,29 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" t="s">
-        <v>326</v>
-      </c>
+      <c r="D7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7"/>
       <c r="G7" t="s">
-        <v>326</v>
+        <v>1315</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1323</v>
+        <v>164</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>417</v>
-      </c>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>17.3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>152</v>
@@ -9158,23 +9217,20 @@
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" t="s">
-        <v>327</v>
+      <c r="D8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1316</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1323</v>
+        <v>164</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -9182,7 +9238,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>152</v>
@@ -9190,32 +9246,25 @@
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F9" t="s">
-        <v>328</v>
-      </c>
+      <c r="D9" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>1314</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1323</v>
+        <v>164</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
@@ -9256,7 +9305,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>152</v>
@@ -9265,19 +9314,19 @@
         <v>2</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>20</v>
@@ -9288,12 +9337,12 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>152</v>
@@ -9302,31 +9351,26 @@
         <v>2</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="47" t="s">
-        <v>1323</v>
+      <c r="J12" s="5" t="s">
+        <v>1322</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
@@ -9354,7 +9398,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -9364,7 +9408,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>152</v>
@@ -9373,25 +9417,23 @@
         <v>2</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F14" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" t="s">
-        <v>333</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="G14"/>
       <c r="H14" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -9401,7 +9443,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>152</v>
@@ -9410,35 +9452,38 @@
         <v>2</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>1319</v>
+      </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>46</v>
+      <c r="M15" s="5"/>
+      <c r="O15" s="62" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>152</v>
@@ -9447,35 +9492,33 @@
         <v>2</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F16" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G16" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="5" t="s">
         <v>1323</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>152</v>
@@ -9484,32 +9527,33 @@
         <v>2</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>325</v>
+      </c>
+      <c r="G17" t="s">
+        <v>325</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="5" t="s">
         <v>1323</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>152</v>
@@ -9518,33 +9562,35 @@
         <v>2</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G18"/>
+        <v>328</v>
+      </c>
+      <c r="G18" t="s">
+        <v>328</v>
+      </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="5" t="s">
         <v>1323</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>17.100000000000001</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>152</v>
@@ -9552,29 +9598,36 @@
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="D19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
       <c r="G19" t="s">
-        <v>1314</v>
+        <v>333</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>164</v>
+      <c r="J19" s="47" t="s">
+        <v>1323</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>17.2</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>152</v>
@@ -9582,29 +9635,36 @@
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20"/>
+      <c r="D20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" t="s">
+        <v>330</v>
+      </c>
       <c r="G20" t="s">
-        <v>1315</v>
+        <v>330</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>164</v>
+      <c r="J20" s="47" t="s">
+        <v>1323</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>17.3</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>152</v>
@@ -9612,28 +9672,36 @@
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>185</v>
+      <c r="D21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" t="s">
+        <v>335</v>
       </c>
       <c r="G21" t="s">
-        <v>1316</v>
+        <v>335</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>186</v>
+        <v>50</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>164</v>
+      <c r="J21" s="47" t="s">
+        <v>1323</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>153</v>
@@ -9642,31 +9710,36 @@
         <v>3</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>322</v>
+        <v>21</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="5" t="s">
-        <v>15</v>
+        <v>1150</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="62" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>153</v>
@@ -9675,31 +9748,38 @@
         <v>3</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="G23"/>
       <c r="H23" s="5" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K23" s="5"/>
+        <v>1322</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="O23" s="62" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>153</v>
@@ -9708,17 +9788,17 @@
         <v>3</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="5" t="s">
-        <v>1150</v>
+        <v>61</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
@@ -9726,18 +9806,18 @@
       <c r="J24" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="O24" s="62" t="s">
-        <v>1188</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>153</v>
@@ -9746,17 +9826,17 @@
         <v>3</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>16</v>
@@ -9764,15 +9844,18 @@
       <c r="J25" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="29" t="s">
-        <v>512</v>
+      <c r="M25" s="5"/>
+      <c r="O25" s="62" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="13" customHeight="1">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>153</v>
@@ -9781,38 +9864,36 @@
         <v>3</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>1322</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L26" s="5"/>
-      <c r="M26" s="38" t="s">
-        <v>513</v>
-      </c>
+      <c r="M26" s="5"/>
       <c r="O26" s="62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>153</v>
@@ -9821,36 +9902,33 @@
         <v>3</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="O27" s="62" t="s">
-        <v>514</v>
+      <c r="M27" s="29" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>153</v>
@@ -9859,36 +9937,31 @@
         <v>3</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>423</v>
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="G28"/>
       <c r="H28" s="5" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="O28" s="62" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>153</v>
@@ -9897,512 +9970,401 @@
         <v>3</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="5" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="O29" s="62" t="s">
-        <v>529</v>
-      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F30" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" t="s">
-        <v>322</v>
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>21</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>15</v>
+        <v>1556</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K30" s="5"/>
+        <v>164</v>
+      </c>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G31" t="s">
-        <v>323</v>
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>187</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>19</v>
+        <v>1561</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K31" s="5"/>
+        <v>164</v>
+      </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="F32" t="s">
-        <v>533</v>
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="G32" t="s">
-        <v>533</v>
+        <v>1493</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>542</v>
+        <v>691</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="O32" s="62" t="s">
-        <v>1329</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F33" t="s">
-        <v>534</v>
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>534</v>
+        <v>1491</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="23" t="s">
-        <v>542</v>
+        <v>164</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="O33" s="62" t="s">
-        <v>1329</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F34" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" t="s">
-        <v>324</v>
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>192</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>1151</v>
+        <v>193</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5" t="s">
-        <v>23</v>
+        <v>164</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="F35" t="s">
-        <v>535</v>
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="G35" s="37" t="s">
+        <v>1492</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>1590</v>
+        <v>1532</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K35" s="5"/>
+        <v>164</v>
+      </c>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="O35" s="62" t="s">
-        <v>1330</v>
-      </c>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F36" t="s">
-        <v>536</v>
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>536</v>
+        <v>322</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>1584</v>
+        <v>15</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="47" t="s">
+      <c r="J36" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="O36" s="62" t="s">
-        <v>1332</v>
-      </c>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="F37" t="s">
-        <v>537</v>
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>323</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>1587</v>
+        <v>19</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>691</v>
+        <v>1323</v>
       </c>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="O37" s="62" t="s">
-        <v>1331</v>
-      </c>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="F38" t="s">
-        <v>538</v>
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>538</v>
+        <v>324</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>1595</v>
+        <v>1557</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="O38" s="62" t="s">
-        <v>697</v>
+      <c r="N38" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F39" t="s">
-        <v>539</v>
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>539</v>
+        <v>1496</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="O39" s="62" t="s">
-        <v>698</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="F40" t="s">
-        <v>540</v>
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" t="s">
+        <v>312</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="G40" t="s">
-        <v>540</v>
+        <v>1495</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>699</v>
+        <v>164</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="M40" s="5"/>
-      <c r="O40" s="63" t="s">
-        <v>1326</v>
+        <v>208</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="62" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1">
-        <v>36.1</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>155</v>
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" t="s">
+        <v>312</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41"/>
+        <v>203</v>
+      </c>
       <c r="G41" t="s">
-        <v>1317</v>
+        <v>1494</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>164</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="M41" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="N41" s="5"/>
       <c r="O41" s="62" t="s">
-        <v>1333</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>155</v>
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42"/>
       <c r="G42" t="s">
         <v>1318</v>
       </c>
@@ -10418,237 +10380,214 @@
       <c r="L42" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
       <c r="O42" s="62" t="s">
-        <v>1334</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1">
-        <v>37</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F43" t="s">
-        <v>322</v>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>322</v>
+        <v>1317</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="62" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1">
-        <v>38</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F44" t="s">
-        <v>323</v>
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1">
-        <v>39</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="F45" t="s">
-        <v>700</v>
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>323</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>703</v>
+        <v>1323</v>
       </c>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1">
-        <v>40</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="F46" t="s">
-        <v>701</v>
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>324</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>95</v>
+        <v>1559</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>703</v>
+        <v>164</v>
       </c>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="N46" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1">
-        <v>41</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="F47" t="s">
-        <v>702</v>
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1486</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="62" t="s">
+        <v>1516</v>
+      </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1">
-        <v>41.1</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>157</v>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" t="s">
+        <v>314</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48"/>
+        <v>211</v>
+      </c>
       <c r="G48" t="s">
-        <v>1379</v>
+        <v>1485</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48"/>
+      <c r="L48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N48" s="5"/>
       <c r="O48" s="62" t="s">
-        <v>1387</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1">
-        <v>41.2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>157</v>
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" t="s">
+        <v>314</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49"/>
+        <v>217</v>
+      </c>
       <c r="G49" t="s">
-        <v>1380</v>
+        <v>1487</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>230</v>
+        <v>1585</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>20</v>
@@ -10656,67 +10595,63 @@
       <c r="J49" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49"/>
+      <c r="N49" s="5"/>
       <c r="O49" s="62" t="s">
-        <v>1387</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1">
-        <v>41.3</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>157</v>
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" t="s">
+        <v>314</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50"/>
+        <v>199</v>
+      </c>
       <c r="G50" t="s">
-        <v>1381</v>
+        <v>1318</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50"/>
+      <c r="L50" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N50" s="5"/>
       <c r="O50" s="62" t="s">
-        <v>1387</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1">
-        <v>41.4</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>157</v>
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>314</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51"/>
+        <v>196</v>
+      </c>
       <c r="G51" t="s">
-        <v>1382</v>
+        <v>1317</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>20</v>
@@ -10724,33 +10659,32 @@
       <c r="J51" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51"/>
+      <c r="L51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N51" s="5"/>
       <c r="O51" s="62" t="s">
-        <v>1387</v>
+        <v>733</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>157</v>
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" t="s">
+        <v>314</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52"/>
+        <v>220</v>
+      </c>
       <c r="G52" t="s">
-        <v>1383</v>
+        <v>1489</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>236</v>
+        <v>1593</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>20</v>
@@ -10758,35 +10692,32 @@
       <c r="J52" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="L52" s="5"/>
-      <c r="M52"/>
+      <c r="L52" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N52" s="5"/>
       <c r="O52" s="62" t="s">
-        <v>1390</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1">
-        <v>41.7</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>157</v>
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" t="s">
+        <v>314</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53"/>
+        <v>222</v>
+      </c>
       <c r="G53" t="s">
-        <v>1384</v>
+        <v>1490</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>239</v>
+        <v>1591</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>16</v>
@@ -10794,142 +10725,127 @@
       <c r="J53" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53"/>
+      <c r="L53" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="N53" s="5"/>
       <c r="O53" s="62" t="s">
-        <v>1390</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>157</v>
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" t="s">
+        <v>314</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54"/>
+        <v>218</v>
+      </c>
       <c r="G54" t="s">
-        <v>1385</v>
+        <v>1488</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>242</v>
+        <v>1595</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N54" s="5"/>
       <c r="O54" s="62" t="s">
-        <v>1387</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>157</v>
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" t="s">
+        <v>314</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55"/>
+        <v>14</v>
+      </c>
       <c r="G55" t="s">
-        <v>1386</v>
+        <v>322</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K55" s="5"/>
+        <v>1323</v>
+      </c>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="O55" s="62" t="s">
-        <v>1387</v>
-      </c>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1">
-        <v>42</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F56" t="s">
-        <v>322</v>
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>705</v>
+        <v>324</v>
       </c>
       <c r="F57" t="s">
-        <v>705</v>
+        <v>324</v>
       </c>
       <c r="G57" t="s">
-        <v>705</v>
+        <v>324</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>100</v>
+        <v>1151</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>20</v>
@@ -10938,368 +10854,387 @@
         <v>1323</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="53" t="s">
-        <v>1395</v>
-      </c>
+      <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O57" s="62" t="s">
-        <v>724</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>706</v>
+        <v>536</v>
       </c>
       <c r="F58" t="s">
-        <v>706</v>
+        <v>536</v>
       </c>
       <c r="G58" t="s">
-        <v>706</v>
+        <v>536</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58" s="53" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="47" t="s">
         <v>1323</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="L58" s="53" t="s">
-        <v>1407</v>
+        <v>692</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>1327</v>
       </c>
       <c r="M58" s="5"/>
       <c r="O58" s="62" t="s">
-        <v>723</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>707</v>
+        <v>540</v>
       </c>
       <c r="F59" t="s">
-        <v>707</v>
+        <v>540</v>
       </c>
       <c r="G59" t="s">
-        <v>707</v>
+        <v>540</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I59" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>1323</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L59" s="5"/>
+        <v>699</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>1325</v>
+      </c>
       <c r="M59" s="5"/>
-      <c r="O59" s="62" t="s">
-        <v>723</v>
+      <c r="O59" s="63" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1">
-        <v>45.1</v>
+        <v>29</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60"/>
+        <v>155</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F60" t="s">
+        <v>534</v>
+      </c>
       <c r="G60" t="s">
-        <v>1391</v>
-      </c>
-      <c r="H60" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="I60" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="53" t="s">
-        <v>1408</v>
-      </c>
-      <c r="M60" s="5"/>
+        <v>1323</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="O60" s="62" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1">
-        <v>45.2</v>
+        <v>28</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61"/>
+        <v>155</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F61" t="s">
+        <v>533</v>
+      </c>
       <c r="G61" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H61" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="I61" s="53" t="s">
-        <v>20</v>
+        <v>533</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L61" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="M61" s="53" t="s">
-        <v>280</v>
+        <v>1323</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="O61" s="62" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1">
-        <v>45.3</v>
+        <v>33</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62"/>
-      <c r="G62" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H62" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="I62" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F62" t="s">
+        <v>537</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L62" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="M62" s="53" t="s">
-        <v>280</v>
+        <v>1322</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="O62" s="62" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1">
-        <v>45.4</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>1394</v>
-      </c>
-      <c r="H63" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="I63" s="53" t="s">
-        <v>20</v>
+        <v>1318</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="53" t="s">
-        <v>1409</v>
+      <c r="L63" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="M63" s="5"/>
+      <c r="O63" s="62" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1">
-        <v>46</v>
+        <v>36.1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" t="s">
-        <v>322</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64"/>
       <c r="G64" t="s">
-        <v>322</v>
+        <v>1317</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="M64" s="5"/>
+      <c r="O64" s="62" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>323</v>
+        <v>75</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="F65" t="s">
-        <v>323</v>
-      </c>
-      <c r="G65" t="s">
-        <v>323</v>
+        <v>535</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>19</v>
+        <v>1589</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
+      <c r="O65" s="62" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" t="s">
-        <v>726</v>
+        <v>82</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="F66" t="s">
-        <v>726</v>
+        <v>538</v>
       </c>
       <c r="G66" t="s">
-        <v>726</v>
+        <v>538</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>109</v>
+        <v>1594</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>1323</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>287</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="O66" s="62" t="s">
-        <v>816</v>
+        <v>697</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" t="s">
-        <v>727</v>
+        <v>85</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="F67" t="s">
-        <v>727</v>
+        <v>539</v>
       </c>
       <c r="G67" t="s">
-        <v>727</v>
+        <v>539</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>112</v>
+        <v>1592</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>16</v>
@@ -11308,1515 +11243,1500 @@
         <v>1323</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="O67" s="62" t="s">
-        <v>816</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>728</v>
+        <v>14</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" t="s">
+        <v>322</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K68" s="5">
-        <v>0</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O68" s="62" t="s">
-        <v>733</v>
-      </c>
+      <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1">
-        <v>50.1</v>
+        <v>27</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="37"/>
-      <c r="G69" s="1" t="s">
-        <v>324</v>
+        <v>155</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F69" t="s">
+        <v>323</v>
+      </c>
+      <c r="G69" t="s">
+        <v>323</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>1560</v>
+        <v>19</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>164</v>
+        <v>1323</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="N69" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" t="s">
-        <v>729</v>
+        <v>96</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="F70" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>1591</v>
+        <v>97</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="5" t="s">
+        <v>704</v>
+      </c>
       <c r="L70" s="5"/>
-      <c r="M70"/>
-      <c r="O70" s="62" t="s">
-        <v>842</v>
-      </c>
+      <c r="M70" s="5"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" t="s">
-        <v>730</v>
+        <v>94</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>701</v>
       </c>
       <c r="F71" t="s">
-        <v>730</v>
-      </c>
-      <c r="G71" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>1585</v>
+        <v>95</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K71" s="5"/>
+        <v>1322</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>703</v>
+      </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="O71" s="62" t="s">
-        <v>1301</v>
-      </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1">
-        <v>53</v>
+        <v>41.9</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" t="s">
-        <v>731</v>
-      </c>
-      <c r="F72" t="s">
-        <v>731</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72"/>
       <c r="G72" t="s">
-        <v>731</v>
+        <v>1386</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>1589</v>
+        <v>244</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>1323</v>
+        <v>164</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
       <c r="O72" s="62" t="s">
-        <v>842</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1">
-        <v>54</v>
+        <v>41.1</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E73" t="s">
-        <v>732</v>
-      </c>
-      <c r="F73" t="s">
-        <v>732</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73"/>
       <c r="G73" t="s">
-        <v>732</v>
+        <v>1379</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>1597</v>
+        <v>228</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>1422</v>
-      </c>
-      <c r="M73" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73"/>
       <c r="O73" s="62" t="s">
-        <v>1423</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1">
-        <v>55</v>
+        <v>41.4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F74" t="s">
-        <v>322</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74"/>
       <c r="G74" t="s">
-        <v>322</v>
+        <v>1382</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>1323</v>
+        <v>164</v>
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
+      <c r="M74"/>
+      <c r="O74" s="62" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1">
-        <v>56</v>
+        <v>41.2</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F75" t="s">
-        <v>323</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75"/>
       <c r="G75" t="s">
-        <v>323</v>
+        <v>1380</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>1323</v>
+        <v>164</v>
       </c>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
+      <c r="M75"/>
+      <c r="O75" s="62" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1">
-        <v>57</v>
+        <v>41.3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F76" t="s">
-        <v>705</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76"/>
       <c r="G76" t="s">
-        <v>705</v>
+        <v>1381</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>1323</v>
+        <v>164</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="53" t="s">
-        <v>1395</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="L76" s="5"/>
+      <c r="M76"/>
       <c r="O76" s="62" t="s">
-        <v>1171</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="F77" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>1180</v>
+        <v>703</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="O77" s="62" t="s">
-        <v>1179</v>
-      </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1">
-        <v>59</v>
+        <v>41.8</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1161</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78"/>
       <c r="G78" t="s">
-        <v>1161</v>
+        <v>1385</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>128</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="O78" s="64" t="s">
-        <v>1181</v>
+      <c r="O78" s="62" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1">
-        <v>60</v>
+        <v>41.7</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1162</v>
+        <v>157</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79"/>
+      <c r="G79" t="s">
+        <v>1384</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>1322</v>
+        <v>164</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>1182</v>
+        <v>240</v>
       </c>
       <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="M79"/>
       <c r="O79" s="62" t="s">
-        <v>1173</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1">
-        <v>61</v>
+        <v>41.5</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1163</v>
+        <v>157</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>1383</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="I80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="L80" s="5"/>
+      <c r="M80"/>
+      <c r="O80" s="62" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1">
+        <v>37</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F81" t="s">
+        <v>322</v>
+      </c>
+      <c r="G81" t="s">
+        <v>322</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J80" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="O80" s="62" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="1">
-        <v>62</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1164</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J81" s="5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="O81" s="62" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="1">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1165</v>
+        <v>323</v>
       </c>
       <c r="F82" t="s">
-        <v>1165</v>
+        <v>323</v>
+      </c>
+      <c r="G82" t="s">
+        <v>323</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>1202</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="O82" s="62" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1">
-        <v>64</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1166</v>
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" t="s">
+        <v>316</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1524</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="I83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="O83" s="62" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="1">
-        <v>65</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J84" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>164</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N84" s="5"/>
+      <c r="O84" s="65" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1">
-        <v>66</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1168</v>
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>317</v>
+      </c>
+      <c r="C85" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1526</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>1184</v>
+        <v>164</v>
       </c>
       <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="O85" s="62" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1">
-        <v>67</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1169</v>
+        <v>112</v>
+      </c>
+      <c r="B86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" t="s">
+        <v>316</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1528</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="O86" s="64" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+        <v>164</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1">
-        <v>68</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="55" t="s">
-        <v>289</v>
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" t="s">
+        <v>316</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="G87" t="s">
-        <v>1410</v>
+        <v>1527</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O87" s="63"/>
-      <c r="P87"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="L87" s="5"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="1">
-        <v>69</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" s="55" t="s">
-        <v>291</v>
+        <v>106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>317</v>
+      </c>
+      <c r="C88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="G88" t="s">
-        <v>1411</v>
-      </c>
-      <c r="H88" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="I88" s="47" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I88" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K88"/>
-      <c r="L88" s="47" t="s">
-        <v>1419</v>
-      </c>
-      <c r="M88"/>
-      <c r="O88" s="63" t="s">
-        <v>1420</v>
-      </c>
-      <c r="P88"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="L88" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1">
-        <v>70</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" s="55" t="s">
-        <v>294</v>
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" t="s">
+        <v>316</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="G89" t="s">
-        <v>1412</v>
-      </c>
-      <c r="H89" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="I89" s="47" t="s">
-        <v>16</v>
+        <v>1529</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K89"/>
-      <c r="L89" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="M89"/>
-      <c r="O89" s="63" t="s">
-        <v>1421</v>
-      </c>
-      <c r="P89"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="L89" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="1">
-        <v>71</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D90" s="55" t="s">
-        <v>297</v>
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" t="s">
+        <v>316</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="G90" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H90" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="I90" s="47" t="s">
-        <v>20</v>
+        <v>1523</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K90"/>
-      <c r="L90" s="47"/>
-      <c r="M90"/>
-      <c r="N90" s="47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="L90" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N90" s="5"/>
+      <c r="O90" s="62" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1">
-        <v>72</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D91" s="55" t="s">
-        <v>300</v>
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>317</v>
+      </c>
+      <c r="C91" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>1414</v>
-      </c>
-      <c r="H91" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="I91" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L91" s="5"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>316</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
+        <v>323</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K91"/>
-      <c r="L91" s="47"/>
-      <c r="M91"/>
-      <c r="N91" s="47"/>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" s="1">
-        <v>73</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1415</v>
-      </c>
-      <c r="H92" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="I92" s="47" t="s">
-        <v>20</v>
-      </c>
       <c r="J92" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K92"/>
-      <c r="L92" s="47"/>
-      <c r="M92"/>
-    </row>
-    <row r="93" spans="1:16">
+        <v>1323</v>
+      </c>
+      <c r="L92" s="5"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1">
-        <v>74</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>304</v>
+        <v>121</v>
+      </c>
+      <c r="B93" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H93" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="I93" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K93"/>
-      <c r="L93" s="47" t="s">
-        <v>691</v>
-      </c>
-      <c r="M93"/>
-      <c r="N93" s="5">
-        <v>10012735</v>
-      </c>
-      <c r="O93" s="64" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="L93" s="5"/>
+      <c r="N93" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1">
-        <v>75</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D94" s="55" t="s">
-        <v>306</v>
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>319</v>
+      </c>
+      <c r="C94" t="s">
+        <v>318</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="G94" t="s">
-        <v>1417</v>
-      </c>
-      <c r="H94" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="I94" s="47" t="s">
-        <v>20</v>
+        <v>1537</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L94" s="47" t="s">
-        <v>691</v>
-      </c>
-      <c r="N94" s="47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="L94" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N94" s="5"/>
+      <c r="O94" s="62" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="1">
-        <v>76</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D95" s="55" t="s">
-        <v>308</v>
+        <v>122</v>
+      </c>
+      <c r="B95" t="s">
+        <v>319</v>
+      </c>
+      <c r="C95" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="G95" t="s">
-        <v>1418</v>
-      </c>
-      <c r="H95" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="I95" s="47" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L95" s="47" t="s">
-        <v>691</v>
-      </c>
-      <c r="N95" s="5">
-        <v>10018836</v>
-      </c>
-      <c r="O95" s="64" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="L95" s="5"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="1">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="G96" t="s">
-        <v>322</v>
+        <v>1535</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>15</v>
+        <v>1581</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L96" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N96" s="5"/>
+      <c r="O96" s="62" t="s">
+        <v>1553</v>
+      </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="G97" t="s">
-        <v>323</v>
+        <v>1536</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>19</v>
+        <v>1580</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L97" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="N97" s="5"/>
+      <c r="O97" s="62" t="s">
+        <v>1553</v>
+      </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C98" t="s">
-        <v>311</v>
-      </c>
-      <c r="D98" s="53" t="s">
-        <v>21</v>
+        <v>318</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1318</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1556</v>
+        <v>200</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="L98" s="5"/>
-      <c r="N98" s="5" t="s">
-        <v>23</v>
+        <v>164</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N98" s="5"/>
+      <c r="O98" s="62" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C99" t="s">
-        <v>311</v>
-      </c>
-      <c r="D99" s="53" t="s">
-        <v>187</v>
+        <v>318</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1317</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>1561</v>
+        <v>197</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="L99" s="5"/>
-      <c r="N99" s="5" t="s">
-        <v>189</v>
+        <v>164</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N99" s="5"/>
+      <c r="O99" s="62" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C100" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>1491</v>
+        <v>322</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L100" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N100" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O100" s="62" t="s">
-        <v>1480</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="L100" s="5"/>
+      <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C101" t="s">
-        <v>311</v>
-      </c>
-      <c r="D101" s="13"/>
-      <c r="G101" s="37" t="s">
-        <v>1492</v>
+        <v>318</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s">
+        <v>323</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>1532</v>
+        <v>19</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>164</v>
+        <v>1323</v>
       </c>
       <c r="L101" s="5"/>
       <c r="N101" s="5"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1">
-        <v>83</v>
-      </c>
-      <c r="B102" t="s">
-        <v>310</v>
-      </c>
-      <c r="C102" t="s">
-        <v>311</v>
-      </c>
-      <c r="D102" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>20</v>
+        <v>45.1</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102"/>
+      <c r="G102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H102" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="I102" s="53" t="s">
+        <v>16</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="L102" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>116</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K102" s="5"/>
+      <c r="L102" s="53" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M102" s="5"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1">
-        <v>84</v>
-      </c>
-      <c r="B103" t="s">
-        <v>310</v>
-      </c>
-      <c r="C103" t="s">
-        <v>311</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>194</v>
+        <v>45</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F103" t="s">
+        <v>707</v>
       </c>
       <c r="G103" t="s">
-        <v>1493</v>
+        <v>707</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>20</v>
+        <v>106</v>
+      </c>
+      <c r="I103" s="53" t="s">
+        <v>16</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L103" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>116</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
       <c r="O103" s="62" t="s">
-        <v>1481</v>
+        <v>723</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1">
-        <v>85</v>
-      </c>
-      <c r="B104" t="s">
-        <v>313</v>
-      </c>
-      <c r="C104" t="s">
-        <v>312</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F104" t="s">
+        <v>706</v>
       </c>
       <c r="G104" t="s">
-        <v>322</v>
+        <v>706</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I104" s="53" t="s">
         <v>16</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="L104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="K104" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L104" s="53" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M104" s="5"/>
+      <c r="O104" s="62" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1">
-        <v>86</v>
-      </c>
-      <c r="B105" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" t="s">
-        <v>312</v>
+        <v>45.4</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>18</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105"/>
       <c r="G105" t="s">
-        <v>323</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I105" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H105" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I105" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L105" s="5"/>
-      <c r="N105" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="L105" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M105" s="5"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1">
-        <v>87</v>
-      </c>
-      <c r="B106" t="s">
-        <v>313</v>
-      </c>
-      <c r="C106" t="s">
-        <v>312</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>196</v>
+        <v>43</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F106" t="s">
+        <v>705</v>
       </c>
       <c r="G106" t="s">
-        <v>1317</v>
+        <v>705</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L106" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N106" s="5"/>
+        <v>1323</v>
+      </c>
+      <c r="K106" s="5"/>
+      <c r="L106" s="53" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="O106" s="62" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1">
-        <v>88</v>
-      </c>
-      <c r="B107" t="s">
-        <v>313</v>
-      </c>
-      <c r="C107" t="s">
-        <v>312</v>
+        <v>45.2</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>199</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107"/>
       <c r="G107" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>16</v>
+        <v>1392</v>
+      </c>
+      <c r="H107" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="I107" s="53" t="s">
+        <v>20</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L107" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N107" s="5"/>
-      <c r="O107" s="62" t="s">
-        <v>1497</v>
+      <c r="L107" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="M107" s="53" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1">
-        <v>89</v>
-      </c>
-      <c r="B108" t="s">
-        <v>313</v>
-      </c>
-      <c r="C108" t="s">
-        <v>312</v>
+        <v>45.3</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108"/>
       <c r="G108" t="s">
-        <v>324</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I108" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H108" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="I108" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L108" s="5"/>
-      <c r="N108" s="5" t="s">
-        <v>23</v>
+      <c r="L108" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="M108" s="53" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1">
-        <v>90</v>
-      </c>
-      <c r="B109" t="s">
-        <v>313</v>
-      </c>
-      <c r="C109" t="s">
-        <v>312</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>203</v>
+        <v>42</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F109" t="s">
+        <v>322</v>
       </c>
       <c r="G109" t="s">
-        <v>1494</v>
+        <v>322</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L109" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="N109" s="5"/>
-      <c r="O109" s="62" t="s">
-        <v>1483</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1">
-        <v>91</v>
-      </c>
-      <c r="B110" t="s">
-        <v>313</v>
-      </c>
-      <c r="C110" t="s">
-        <v>312</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G110" t="s">
-        <v>1495</v>
+        <v>50</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="37" t="s">
+        <v>728</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="N110" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="K110" s="5">
+        <v>0</v>
+      </c>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="O110" s="62" t="s">
-        <v>1484</v>
+        <v>733</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1">
-        <v>92</v>
-      </c>
-      <c r="B111" t="s">
-        <v>313</v>
-      </c>
-      <c r="C111" t="s">
-        <v>312</v>
+        <v>50.1</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1496</v>
+        <v>21</v>
+      </c>
+      <c r="E111" s="37"/>
+      <c r="G111" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1583</v>
+        <v>1560</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L111" s="5" t="s">
-        <v>1482</v>
-      </c>
-      <c r="N111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="N111" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1">
-        <v>93</v>
-      </c>
-      <c r="B112" t="s">
-        <v>315</v>
-      </c>
-      <c r="C112" t="s">
-        <v>314</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" t="s">
+        <v>730</v>
+      </c>
+      <c r="F112" t="s">
+        <v>730</v>
       </c>
       <c r="G112" t="s">
-        <v>322</v>
+        <v>730</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>15</v>
+        <v>1584</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>16</v>
@@ -12824,27 +12744,37 @@
       <c r="J112" s="5" t="s">
         <v>1323</v>
       </c>
+      <c r="K112" s="5"/>
       <c r="L112" s="5"/>
-      <c r="N112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="O112" s="62" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1">
-        <v>94</v>
-      </c>
-      <c r="B113" t="s">
-        <v>315</v>
-      </c>
-      <c r="C113" t="s">
-        <v>314</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" t="s">
+        <v>731</v>
+      </c>
+      <c r="F113" t="s">
+        <v>731</v>
       </c>
       <c r="G113" t="s">
-        <v>323</v>
+        <v>731</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>19</v>
+        <v>1588</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>20</v>
@@ -12852,893 +12782,1032 @@
       <c r="J113" s="5" t="s">
         <v>1323</v>
       </c>
+      <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="O113" s="62" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1">
-        <v>95</v>
-      </c>
-      <c r="B114" t="s">
-        <v>315</v>
-      </c>
-      <c r="C114" t="s">
-        <v>314</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>196</v>
+        <v>48</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" t="s">
+        <v>726</v>
+      </c>
+      <c r="F114" t="s">
+        <v>726</v>
       </c>
       <c r="G114" t="s">
-        <v>1317</v>
+        <v>726</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>164</v>
+        <v>1323</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N114" s="5"/>
+        <v>287</v>
+      </c>
+      <c r="M114" s="5"/>
       <c r="O114" s="62" t="s">
-        <v>733</v>
+        <v>816</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1">
-        <v>96</v>
-      </c>
-      <c r="B115" t="s">
-        <v>315</v>
-      </c>
-      <c r="C115" t="s">
-        <v>314</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>199</v>
+        <v>49</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" t="s">
+        <v>727</v>
+      </c>
+      <c r="F115" t="s">
+        <v>727</v>
       </c>
       <c r="G115" t="s">
-        <v>1318</v>
+        <v>727</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L115" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N115" s="5"/>
+        <v>1323</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
       <c r="O115" s="62" t="s">
-        <v>1497</v>
+        <v>816</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1">
-        <v>97</v>
-      </c>
-      <c r="B116" t="s">
-        <v>315</v>
-      </c>
-      <c r="C116" t="s">
-        <v>314</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1485</v>
+        <v>51</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E116" t="s">
+        <v>729</v>
+      </c>
+      <c r="F116" t="s">
+        <v>729</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>212</v>
+        <v>1590</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L116" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="N116" s="5"/>
+        <v>1322</v>
+      </c>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116"/>
       <c r="O116" s="62" t="s">
-        <v>1516</v>
+        <v>842</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1">
-        <v>98</v>
-      </c>
-      <c r="B117" t="s">
-        <v>315</v>
-      </c>
-      <c r="C117" t="s">
-        <v>314</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>214</v>
+        <v>54</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" t="s">
+        <v>732</v>
+      </c>
+      <c r="F117" t="s">
+        <v>732</v>
       </c>
       <c r="G117" t="s">
-        <v>1486</v>
+        <v>732</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>215</v>
+        <v>1596</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>164</v>
+        <v>1323</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N117" s="5"/>
+        <v>1422</v>
+      </c>
+      <c r="M117" s="5"/>
       <c r="O117" s="62" t="s">
-        <v>1516</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1">
-        <v>99</v>
-      </c>
-      <c r="B118" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" t="s">
-        <v>314</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>322</v>
+      </c>
+      <c r="F118" t="s">
+        <v>322</v>
       </c>
       <c r="G118" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1559</v>
+        <v>15</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="N118" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="M118" s="5"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1">
-        <v>100</v>
-      </c>
-      <c r="B119" t="s">
-        <v>315</v>
-      </c>
-      <c r="C119" t="s">
-        <v>314</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>217</v>
+        <v>47</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" t="s">
+        <v>323</v>
+      </c>
+      <c r="F119" t="s">
+        <v>323</v>
       </c>
       <c r="G119" t="s">
-        <v>1487</v>
+        <v>323</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1586</v>
+        <v>19</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="62" t="s">
-        <v>1517</v>
-      </c>
+      <c r="M119" s="5"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1">
-        <v>101</v>
-      </c>
-      <c r="B120" t="s">
-        <v>315</v>
-      </c>
-      <c r="C120" t="s">
-        <v>314</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>218</v>
+        <v>65</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1167</v>
       </c>
       <c r="G120" t="s">
-        <v>1488</v>
+        <v>1167</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1596</v>
+        <v>144</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>1519</v>
-      </c>
-      <c r="N120" s="5"/>
-      <c r="O120" s="62" t="s">
-        <v>1518</v>
+        <v>1323</v>
+      </c>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1">
-        <v>102</v>
-      </c>
-      <c r="B121" t="s">
-        <v>315</v>
-      </c>
-      <c r="C121" t="s">
-        <v>314</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>220</v>
+        <v>73</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" s="55" t="s">
+        <v>302</v>
       </c>
       <c r="G121" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>1594</v>
-      </c>
-      <c r="I121" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H121" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="I121" s="47" t="s">
         <v>20</v>
       </c>
       <c r="J121" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L121" s="5" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N121" s="5"/>
-      <c r="O121" s="62" t="s">
-        <v>1520</v>
-      </c>
+      <c r="K121"/>
+      <c r="L121" s="47"/>
+      <c r="M121"/>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1">
-        <v>103</v>
-      </c>
-      <c r="B122" t="s">
-        <v>315</v>
-      </c>
-      <c r="C122" t="s">
-        <v>314</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>222</v>
+        <v>72</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D122" s="55" t="s">
+        <v>300</v>
       </c>
       <c r="G122" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>16</v>
+        <v>1414</v>
+      </c>
+      <c r="H122" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="I122" s="47" t="s">
+        <v>20</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L122" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N122" s="5"/>
-      <c r="O122" s="62" t="s">
-        <v>1520</v>
-      </c>
+      <c r="K122"/>
+      <c r="L122" s="47"/>
+      <c r="M122"/>
+      <c r="N122" s="47"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1">
-        <v>104</v>
-      </c>
-      <c r="B123" t="s">
-        <v>317</v>
-      </c>
-      <c r="C123" t="s">
-        <v>316</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" s="55" t="s">
+        <v>297</v>
       </c>
       <c r="G123" t="s">
-        <v>322</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>16</v>
+        <v>1413</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="I123" s="47" t="s">
+        <v>20</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L123" s="5"/>
-      <c r="N123" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="K123"/>
+      <c r="L123" s="47"/>
+      <c r="M123"/>
+      <c r="N123" s="47" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1">
-        <v>105</v>
-      </c>
-      <c r="B124" t="s">
-        <v>317</v>
-      </c>
-      <c r="C124" t="s">
-        <v>316</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>18</v>
+        <v>74</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" s="55" t="s">
+        <v>304</v>
       </c>
       <c r="G124" t="s">
-        <v>323</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I124" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H124" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="I124" s="47" t="s">
         <v>20</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="L124" s="5"/>
-      <c r="N124" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="K124"/>
+      <c r="L124" s="47" t="s">
+        <v>691</v>
+      </c>
+      <c r="M124"/>
+      <c r="N124" s="5">
+        <v>10012735</v>
+      </c>
+      <c r="O124" s="64" t="s">
+        <v>1562</v>
+      </c>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1">
-        <v>106</v>
-      </c>
-      <c r="B125" t="s">
-        <v>317</v>
-      </c>
-      <c r="C125" t="s">
-        <v>316</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>245</v>
+        <v>75</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>306</v>
       </c>
       <c r="G125" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I125" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H125" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="I125" s="47" t="s">
         <v>20</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L125" s="5" t="s">
+      <c r="L125" s="47" t="s">
         <v>691</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N125" s="47" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1">
-        <v>107</v>
-      </c>
-      <c r="B126" t="s">
-        <v>317</v>
-      </c>
-      <c r="C126" t="s">
-        <v>316</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>247</v>
+        <v>76</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="G126" t="s">
-        <v>1523</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>16</v>
+        <v>1418</v>
+      </c>
+      <c r="H126" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="I126" s="47" t="s">
+        <v>20</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L126" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="N126" s="5"/>
-      <c r="O126" s="62" t="s">
-        <v>1530</v>
+      <c r="L126" s="47" t="s">
+        <v>691</v>
+      </c>
+      <c r="N126" s="5">
+        <v>10018836</v>
+      </c>
+      <c r="O126" s="64" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1">
-        <v>108</v>
-      </c>
-      <c r="B127" t="s">
-        <v>317</v>
-      </c>
-      <c r="C127" t="s">
-        <v>316</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="G127" t="s">
-        <v>1524</v>
+        <v>64</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1166</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L127" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N127" s="5" t="s">
-        <v>116</v>
+        <v>1322</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="O127" s="62" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1">
-        <v>109</v>
-      </c>
-      <c r="B128" t="s">
-        <v>317</v>
-      </c>
-      <c r="C128" t="s">
-        <v>316</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="G128" t="s">
-        <v>1525</v>
+        <v>63</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1165</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>1534</v>
-      </c>
-      <c r="N128" s="5"/>
-      <c r="O128" s="65" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>1322</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="O128" s="62" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="1">
-        <v>110</v>
-      </c>
-      <c r="B129" t="s">
-        <v>317</v>
-      </c>
-      <c r="C129" t="s">
-        <v>316</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>255</v>
+        <v>57</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F129" t="s">
+        <v>705</v>
       </c>
       <c r="G129" t="s">
-        <v>1526</v>
+        <v>705</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L129" s="5"/>
-      <c r="N129" s="5"/>
-    </row>
-    <row r="130" spans="1:15">
+        <v>1323</v>
+      </c>
+      <c r="K129" s="5"/>
+      <c r="L129" s="53" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O129" s="62" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="1">
-        <v>111</v>
-      </c>
-      <c r="B130" t="s">
-        <v>317</v>
-      </c>
-      <c r="C130" t="s">
-        <v>316</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>257</v>
+        <v>68</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" s="55" t="s">
+        <v>289</v>
       </c>
       <c r="G130" t="s">
-        <v>1527</v>
+        <v>1410</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J130" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L130" s="5"/>
-      <c r="N130" s="5"/>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="O130" s="63"/>
+      <c r="P130"/>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="1">
-        <v>112</v>
-      </c>
-      <c r="B131" t="s">
-        <v>317</v>
-      </c>
-      <c r="C131" t="s">
-        <v>316</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>259</v>
+        <v>70</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="55" t="s">
+        <v>294</v>
       </c>
       <c r="G131" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>20</v>
+        <v>1412</v>
+      </c>
+      <c r="H131" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="I131" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L131" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="N131" s="5"/>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="K131"/>
+      <c r="L131" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="M131"/>
+      <c r="O131" s="63" t="s">
+        <v>1421</v>
+      </c>
+      <c r="P131"/>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="1">
-        <v>113</v>
-      </c>
-      <c r="B132" t="s">
-        <v>317</v>
-      </c>
-      <c r="C132" t="s">
-        <v>316</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>262</v>
+        <v>69</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" s="55" t="s">
+        <v>291</v>
       </c>
       <c r="G132" t="s">
-        <v>1529</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I132" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H132" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="I132" s="47" t="s">
         <v>20</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L132" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N132" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+      <c r="K132"/>
+      <c r="L132" s="47" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M132"/>
+      <c r="O132" s="63" t="s">
+        <v>1420</v>
+      </c>
+      <c r="P132"/>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="1">
-        <v>114</v>
-      </c>
-      <c r="B133" t="s">
-        <v>319</v>
-      </c>
-      <c r="C133" t="s">
-        <v>318</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>322</v>
+        <v>67</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1169</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="I133" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="L133" s="5"/>
-      <c r="N133" s="5"/>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="M133" s="5"/>
+      <c r="O133" s="64" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="1">
-        <v>115</v>
-      </c>
-      <c r="B134" t="s">
-        <v>319</v>
-      </c>
-      <c r="C134" t="s">
-        <v>318</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>323</v>
+        <v>66</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1168</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J134" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="O134" s="62" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="1">
+        <v>59</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="L134" s="5"/>
-      <c r="N134" s="5"/>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" s="1">
-        <v>116</v>
-      </c>
-      <c r="B135" t="s">
-        <v>319</v>
-      </c>
-      <c r="C135" t="s">
-        <v>318</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G135" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I135" s="5" t="s">
+      <c r="K135" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="O135" s="64" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="1">
+        <v>58</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I136" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J135" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L135" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N135" s="5"/>
-      <c r="O135" s="62" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" s="1">
-        <v>117</v>
-      </c>
-      <c r="B136" t="s">
-        <v>319</v>
-      </c>
-      <c r="C136" t="s">
-        <v>318</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J136" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L136" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N136" s="5"/>
+        <v>1323</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
       <c r="O136" s="62" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="1">
-        <v>118</v>
-      </c>
-      <c r="B137" t="s">
-        <v>319</v>
-      </c>
-      <c r="C137" t="s">
-        <v>318</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>264</v>
+        <v>55</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F137" t="s">
+        <v>322</v>
       </c>
       <c r="G137" t="s">
-        <v>1535</v>
+        <v>322</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>1582</v>
+        <v>15</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L137" s="5" t="s">
-        <v>1554</v>
-      </c>
-      <c r="N137" s="5"/>
-      <c r="O137" s="62" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>1323</v>
+      </c>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="1">
-        <v>119</v>
-      </c>
-      <c r="B138" t="s">
-        <v>319</v>
-      </c>
-      <c r="C138" t="s">
-        <v>318</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>266</v>
+        <v>56</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F138" t="s">
+        <v>323</v>
       </c>
       <c r="G138" t="s">
-        <v>1536</v>
+        <v>323</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>1581</v>
+        <v>19</v>
       </c>
       <c r="I138" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1">
+        <v>62</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O139" s="62" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="1">
+        <v>61</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I140" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J138" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L138" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="N138" s="5"/>
-      <c r="O138" s="62" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="1">
-        <v>120</v>
-      </c>
-      <c r="B139" t="s">
-        <v>319</v>
-      </c>
-      <c r="C139" t="s">
-        <v>318</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G139" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L139" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N139" s="5"/>
-      <c r="O139" s="62" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="1">
-        <v>121</v>
-      </c>
-      <c r="B140" t="s">
-        <v>319</v>
-      </c>
-      <c r="C140" t="s">
-        <v>318</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>324</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>1558</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J140" s="5" t="s">
-        <v>164</v>
+        <v>1322</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="L140" s="5"/>
-      <c r="N140" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="M140" s="5"/>
+      <c r="O140" s="62" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="1">
-        <v>122</v>
-      </c>
-      <c r="B141" t="s">
-        <v>319</v>
-      </c>
-      <c r="C141" t="s">
-        <v>318</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1538</v>
+        <v>60</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1162</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>1588</v>
+        <v>130</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>164</v>
+        <v>1322</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>1182</v>
       </c>
       <c r="L141" s="5"/>
-      <c r="N141" s="5"/>
-    </row>
-    <row r="143" spans="1:15">
+      <c r="M141" s="5"/>
+      <c r="O141" s="62" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="O143" s="63"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:16">
       <c r="O144" s="63"/>
     </row>
   </sheetData>
-  <sortState ref="A2:P144">
-    <sortCondition ref="A2:A144"/>
+  <sortState ref="A2:P141">
+    <sortCondition ref="B2:B141"/>
+    <sortCondition ref="H2:H141"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13755,17 +13824,17 @@
   <dimension ref="A1:P144"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="7.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="28" customWidth="1"/>
     <col min="5" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
@@ -18677,8 +18746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y182"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="M111" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="O115" sqref="N1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18704,42 +18773,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>1191</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="F1" s="73" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="F1" s="76" t="s">
         <v>1378</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76" t="s">
         <v>1192</v>
       </c>
-      <c r="I1" s="73"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="71" t="s">
         <v>1498</v>
       </c>
-      <c r="L1" s="68"/>
+      <c r="L1" s="71"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="74" t="s">
         <v>1201</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="U1" s="68" t="s">
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="U1" s="71" t="s">
         <v>1499</v>
       </c>
-      <c r="V1" s="68"/>
-      <c r="X1" s="68" t="s">
+      <c r="V1" s="71"/>
+      <c r="X1" s="71" t="s">
         <v>1552</v>
       </c>
-      <c r="Y1" s="68"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
@@ -19237,7 +19306,7 @@
       <c r="F10" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="69" t="s">
         <v>614</v>
       </c>
       <c r="H10" s="45" t="s">
@@ -19567,10 +19636,10 @@
       <c r="B17">
         <v>10027199</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="70" t="s">
         <v>571</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="68" t="s">
         <v>617</v>
       </c>
       <c r="H17" s="45" t="s">
@@ -19606,10 +19675,10 @@
       <c r="B18">
         <v>10045275</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="70" t="s">
         <v>571</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="68" t="s">
         <v>1337</v>
       </c>
       <c r="H18" s="45" t="s">
@@ -19641,10 +19710,10 @@
       <c r="B19">
         <v>10037660</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="70" t="s">
         <v>571</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="68" t="s">
         <v>572</v>
       </c>
       <c r="H19" s="45" t="s">
@@ -19759,7 +19828,7 @@
       <c r="F22" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="68" t="s">
         <v>635</v>
       </c>
       <c r="H22" s="45" t="s">
@@ -20642,14 +20711,14 @@
         <v>679</v>
       </c>
       <c r="J47" s="45"/>
-      <c r="N47" s="72" t="s">
+      <c r="N47" s="75" t="s">
         <v>1438</v>
       </c>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
@@ -21318,10 +21387,10 @@
       <c r="N70" s="37" t="s">
         <v>1477</v>
       </c>
-      <c r="R70" s="70" t="s">
+      <c r="R70" s="73" t="s">
         <v>1563</v>
       </c>
-      <c r="S70" s="70"/>
+      <c r="S70" s="73"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
@@ -21872,10 +21941,10 @@
       </c>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="72" t="s">
         <v>1555</v>
       </c>
-      <c r="B93" s="69"/>
+      <c r="B93" s="72"/>
       <c r="N93" s="58" t="s">
         <v>752</v>
       </c>
@@ -21970,7 +22039,7 @@
         <v>1573</v>
       </c>
       <c r="U96" t="s">
-        <v>1578</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -21990,10 +22059,10 @@
         <v>818</v>
       </c>
       <c r="Q97" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R97" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="S97" s="66"/>
     </row>
@@ -22014,10 +22083,10 @@
         <v>818</v>
       </c>
       <c r="Q98" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R98" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="S98" s="66"/>
     </row>
@@ -22038,10 +22107,10 @@
         <v>818</v>
       </c>
       <c r="Q99" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R99" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="S99" s="66"/>
     </row>
@@ -22062,10 +22131,10 @@
         <v>818</v>
       </c>
       <c r="Q100" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R100" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="S100" s="66"/>
     </row>
@@ -22086,10 +22155,10 @@
         <v>818</v>
       </c>
       <c r="Q101" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R101" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="S101" s="66"/>
     </row>
@@ -22110,10 +22179,10 @@
         <v>818</v>
       </c>
       <c r="Q102" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R102" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="S102" s="66"/>
     </row>
@@ -22134,10 +22203,10 @@
         <v>818</v>
       </c>
       <c r="Q103" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R103" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="S103" s="66"/>
     </row>
@@ -22156,10 +22225,10 @@
       </c>
       <c r="P104" s="58"/>
       <c r="Q104" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="R104" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="S104" s="66"/>
     </row>
@@ -22181,7 +22250,7 @@
         <v>1475</v>
       </c>
       <c r="R105" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="S105" s="66"/>
     </row>
@@ -22203,7 +22272,7 @@
         <v>1475</v>
       </c>
       <c r="R106" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="S106" s="66"/>
     </row>
@@ -22307,7 +22376,7 @@
         <v>1572</v>
       </c>
       <c r="U110" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -23071,8 +23140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23100,7 +23169,7 @@
         <v>729</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F2" s="33"/>
     </row>
@@ -27460,8 +27529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Load/src/ontology/Gates/HBDG_data dictionary.xlsx
+++ b/Load/src/ontology/Gates/HBDG_data dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7080" windowWidth="25600" windowHeight="7100" tabRatio="836" activeTab="2"/>
+    <workbookView xWindow="-1280" yWindow="1280" windowWidth="29780" windowHeight="15000" tabRatio="836" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gates-edit" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6488" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6630" uniqueCount="1601">
   <si>
     <t>Dataset</t>
   </si>
@@ -5428,6 +5428,9 @@
   </si>
   <si>
     <t>EuPath: Floor material (floor material)</t>
+  </si>
+  <si>
+    <t>lsstlfl</t>
   </si>
 </sst>
 </file>
@@ -5710,8 +5713,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1363">
+  <cellStyleXfs count="1397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7222,7 +7259,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1363">
+  <cellStyles count="1397">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7904,6 +7941,23 @@
     <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8585,6 +8639,23 @@
     <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -13821,13 +13892,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13839,16 +13910,17 @@
     <col min="5" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="6.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="49" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" style="49" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1">
+    <row r="1" spans="1:17" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>320</v>
       </c>
@@ -13873,34 +13945,37 @@
       <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>1321</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>152</v>
@@ -13909,38 +13984,38 @@
         <v>2</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>1149</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>1323</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>1319</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="O2" s="49" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>152</v>
@@ -13949,33 +14024,41 @@
         <v>2</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>152</v>
@@ -13984,35 +14067,38 @@
         <v>2</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="47" t="s">
         <v>1323</v>
       </c>
-      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>152</v>
@@ -14021,31 +14107,33 @@
         <v>2</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G5" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="47" t="s">
         <v>1323</v>
       </c>
-      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="N5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -14070,22 +14158,25 @@
       <c r="H6" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="49" t="s">
+      <c r="N6" s="5"/>
+      <c r="P6" s="49" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>17.2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>152</v>
@@ -14093,39 +14184,32 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" t="s">
-        <v>326</v>
-      </c>
+      <c r="D7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7"/>
       <c r="G7" t="s">
-        <v>326</v>
+        <v>1315</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>17.3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>152</v>
@@ -14133,31 +14217,31 @@
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" t="s">
-        <v>327</v>
+      <c r="D8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1316</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>152</v>
@@ -14165,34 +14249,30 @@
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F9" t="s">
-        <v>328</v>
-      </c>
+      <c r="D9" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>1314</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -14217,21 +14297,24 @@
       <c r="H10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="K10" s="47" t="s">
         <v>1323</v>
       </c>
-      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>152</v>
@@ -14240,35 +14323,38 @@
         <v>2</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="K11" s="47" t="s">
         <v>1323</v>
       </c>
-      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>152</v>
@@ -14277,33 +14363,31 @@
         <v>2</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="K12" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -14325,21 +14409,24 @@
       <c r="H13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="K13" s="47" t="s">
         <v>1323</v>
       </c>
-      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>152</v>
@@ -14348,35 +14435,36 @@
         <v>2</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F14" t="s">
-        <v>333</v>
-      </c>
-      <c r="G14" t="s">
-        <v>333</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="G14"/>
       <c r="H14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="K14" s="47" t="s">
         <v>1323</v>
       </c>
-      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>152</v>
@@ -14385,35 +14473,41 @@
         <v>2</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="L15" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="P15" s="49" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>152</v>
@@ -14422,35 +14516,36 @@
         <v>2</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F16" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G16" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="47" t="s">
+      <c r="K16" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>152</v>
@@ -14459,32 +14554,36 @@
         <v>2</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>325</v>
+      </c>
+      <c r="G17" t="s">
+        <v>325</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="K17" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>152</v>
@@ -14493,33 +14592,38 @@
         <v>2</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G18"/>
+        <v>328</v>
+      </c>
+      <c r="G18" t="s">
+        <v>328</v>
+      </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="K18" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>17.100000000000001</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>152</v>
@@ -14527,29 +14631,39 @@
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="D19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
       <c r="G19" t="s">
-        <v>1314</v>
+        <v>333</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="47" t="s">
+        <v>1323</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>17.2</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>152</v>
@@ -14557,29 +14671,39 @@
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20"/>
+      <c r="D20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" t="s">
+        <v>330</v>
+      </c>
       <c r="G20" t="s">
-        <v>1315</v>
+        <v>330</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="47" t="s">
+        <v>1323</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>17.3</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>152</v>
@@ -14587,28 +14711,39 @@
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>185</v>
+      <c r="D21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" t="s">
+        <v>335</v>
       </c>
       <c r="G21" t="s">
-        <v>1316</v>
+        <v>335</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="47" t="s">
+        <v>1323</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>153</v>
@@ -14617,31 +14752,39 @@
         <v>3</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>322</v>
+        <v>21</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>16</v>
+        <v>1150</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K22" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>1322</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="N22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="49" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>153</v>
@@ -14650,31 +14793,41 @@
         <v>3</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="G23"/>
       <c r="H23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="P23" s="49" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>153</v>
@@ -14683,36 +14836,39 @@
         <v>3</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="49" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="L24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="P24" s="49" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>153</v>
@@ -14721,33 +14877,39 @@
         <v>3</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="29" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="13" customHeight="1">
+      <c r="L25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="P25" s="49" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="13" customHeight="1">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>153</v>
@@ -14756,38 +14918,39 @@
         <v>3</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="J26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="O26" s="49" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="L26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="P26" s="49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>153</v>
@@ -14796,36 +14959,36 @@
         <v>3</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="J27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>1322</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="O27" s="49" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27" s="29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>153</v>
@@ -14834,36 +14997,34 @@
         <v>3</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>423</v>
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="G28"/>
       <c r="H28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>1322</v>
-      </c>
       <c r="K28" s="5" t="s">
-        <v>65</v>
+        <v>1323</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="O28" s="49" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>153</v>
@@ -14872,3866 +15033,4207 @@
         <v>3</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>1322</v>
-      </c>
       <c r="K29" s="5" t="s">
-        <v>68</v>
+        <v>1323</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="O29" s="49" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>310</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" t="s">
+        <v>310</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="O31" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" t="s">
+        <v>310</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P32" s="49" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P33" s="49" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="G35" s="37" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G36" t="s">
         <v>322</v>
       </c>
-      <c r="F30" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" t="s">
-        <v>322</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="O30" s="49" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="27" t="s">
+      <c r="K36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="G37" t="s">
         <v>323</v>
       </c>
-      <c r="F31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G31" t="s">
-        <v>323</v>
-      </c>
-      <c r="H31" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="F32" t="s">
-        <v>533</v>
-      </c>
-      <c r="G32" t="s">
-        <v>533</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="K37" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>324</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>313</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s">
+        <v>313</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="O32" s="49" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F33" t="s">
-        <v>534</v>
-      </c>
-      <c r="G33" t="s">
-        <v>534</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="K39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" t="s">
+        <v>312</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" t="s">
+        <v>313</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="O33" s="49" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F34" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" t="s">
-        <v>324</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="F35" t="s">
-        <v>535</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="K40" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="49" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="O35" s="49" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F36" t="s">
-        <v>536</v>
-      </c>
-      <c r="G36" t="s">
-        <v>536</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="47" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="O36" s="49" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="F37" t="s">
-        <v>537</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="O37" s="49" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="F38" t="s">
-        <v>538</v>
-      </c>
-      <c r="G38" t="s">
-        <v>538</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="O38" s="49" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F39" t="s">
-        <v>539</v>
-      </c>
-      <c r="G39" t="s">
-        <v>539</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="O39" s="49" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="27" t="s">
+      <c r="K41" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O41" s="5"/>
+      <c r="P41" s="49" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
         <v>88</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="F40" t="s">
-        <v>540</v>
-      </c>
-      <c r="G40" t="s">
-        <v>540</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="M40" s="5"/>
-      <c r="O40" s="50" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1">
-        <v>36.1</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41"/>
-      <c r="G41" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="O41" s="49" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>155</v>
+      <c r="B42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42"/>
       <c r="G42" t="s">
         <v>1318</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="M42" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="O42" s="49" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="O42" s="5"/>
+      <c r="P42" s="49" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>37</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I43" t="s">
+        <v>313</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" s="5"/>
+      <c r="P43" s="49" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="G44" t="s">
         <v>322</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>313</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>323</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>313</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>324</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>315</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="O46" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="49" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" t="s">
+        <v>315</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="49" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s">
+        <v>315</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="49" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" t="s">
+        <v>315</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="49" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I51" t="s">
+        <v>315</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="49" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" t="s">
+        <v>315</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="49" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s">
+        <v>315</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="O53" s="5"/>
+      <c r="P53" s="49" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" t="s">
+        <v>315</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="O54" s="5"/>
+      <c r="P54" s="49" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
         <v>322</v>
       </c>
-      <c r="G43" t="s">
-        <v>322</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I55" t="s">
+        <v>315</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="K55" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M55" s="5"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>323</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>315</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M56" s="5"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>30</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" t="s">
+        <v>324</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>38</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F44" t="s">
-        <v>323</v>
-      </c>
-      <c r="G44" t="s">
-        <v>323</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="5" t="s">
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>32</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F58" t="s">
+        <v>536</v>
+      </c>
+      <c r="G58" t="s">
+        <v>536</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="47" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="P58" s="49" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>36</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F59" t="s">
+        <v>540</v>
+      </c>
+      <c r="G59" t="s">
+        <v>540</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="P59" s="50" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>29</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F60" t="s">
+        <v>534</v>
+      </c>
+      <c r="G60" t="s">
+        <v>534</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" s="5"/>
+      <c r="N60" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="P60" s="49" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>28</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F61" t="s">
+        <v>533</v>
+      </c>
+      <c r="G61" t="s">
+        <v>533</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="P61" s="49" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>33</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F62" t="s">
+        <v>537</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>39</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="F45" t="s">
-        <v>700</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="5" t="s">
+      <c r="K62" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>40</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="F46" t="s">
-        <v>701</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
-        <v>41</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="F47" t="s">
-        <v>702</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1">
-        <v>41.1</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48"/>
-      <c r="G48" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48"/>
-      <c r="O48" s="49" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1">
-        <v>41.2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49"/>
-      <c r="G49" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49"/>
-      <c r="O49" s="49" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1">
-        <v>41.3</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50"/>
-      <c r="G50" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50"/>
-      <c r="O50" s="49" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>41.4</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51"/>
-      <c r="G51" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51"/>
-      <c r="O51" s="49" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52"/>
-      <c r="G52" t="s">
-        <v>1383</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="L52" s="5"/>
-      <c r="M52"/>
-      <c r="O52" s="49" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1">
-        <v>41.7</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53"/>
-      <c r="G53" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53"/>
-      <c r="O53" s="49" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54"/>
-      <c r="G54" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="O54" s="49" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55"/>
-      <c r="G55" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="O55" s="49" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>42</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F56" t="s">
-        <v>322</v>
-      </c>
-      <c r="G56" t="s">
-        <v>322</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1">
-        <v>43</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F57" t="s">
-        <v>705</v>
-      </c>
-      <c r="G57" t="s">
-        <v>705</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="53" t="s">
-        <v>1395</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O57" s="49" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1">
-        <v>44</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="F58" t="s">
-        <v>706</v>
-      </c>
-      <c r="G58" t="s">
-        <v>706</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>1396</v>
-      </c>
-      <c r="L58" s="53" t="s">
-        <v>1407</v>
-      </c>
-      <c r="M58" s="5"/>
-      <c r="O58" s="49" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1">
-        <v>45</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="F59" t="s">
-        <v>707</v>
-      </c>
-      <c r="G59" t="s">
-        <v>707</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I59" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="O59" s="49" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1">
-        <v>45.1</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60"/>
-      <c r="G60" t="s">
-        <v>1391</v>
-      </c>
-      <c r="H60" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="I60" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="53" t="s">
-        <v>1408</v>
-      </c>
-      <c r="M60" s="5"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1">
-        <v>45.2</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61"/>
-      <c r="G61" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H61" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="I61" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L61" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="M61" s="53" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1">
-        <v>45.3</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62"/>
-      <c r="G62" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H62" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="I62" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L62" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="M62" s="53" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="L62" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="P62" s="49" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="1">
-        <v>45.4</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>1394</v>
-      </c>
-      <c r="H63" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="I63" s="53" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N63" s="5"/>
+      <c r="P63" s="49" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64"/>
+      <c r="G64" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="K64" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="53" t="s">
-        <v>1409</v>
-      </c>
-      <c r="M63" s="5"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1">
-        <v>46</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" t="s">
-        <v>322</v>
-      </c>
-      <c r="G64" t="s">
-        <v>322</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="5" t="s">
+      <c r="M64" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="P64" s="49" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1">
+        <v>31</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="1">
-        <v>47</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>323</v>
-      </c>
-      <c r="F65" t="s">
-        <v>323</v>
-      </c>
-      <c r="G65" t="s">
-        <v>323</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="5" t="s">
+        <v>1322</v>
+      </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="N65" s="5"/>
+      <c r="P65" s="49" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" t="s">
-        <v>726</v>
+        <v>85</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="F66" t="s">
-        <v>726</v>
+        <v>539</v>
       </c>
       <c r="G66" t="s">
-        <v>726</v>
+        <v>539</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="K66" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K66" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="L66" s="5" t="s">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="M66" s="5"/>
-      <c r="O66" s="49" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="N66" s="5"/>
+      <c r="P66" s="49" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" t="s">
-        <v>727</v>
+        <v>82</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="F67" t="s">
-        <v>727</v>
+        <v>538</v>
       </c>
       <c r="G67" t="s">
-        <v>727</v>
+        <v>538</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I67" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="P67" s="49" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>26</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" t="s">
+        <v>322</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="5" t="s">
+      <c r="K68" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="K67" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="O67" s="49" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1">
-        <v>50</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I68" s="5" t="s">
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="P68" s="49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>27</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F69" t="s">
+        <v>323</v>
+      </c>
+      <c r="G69" t="s">
+        <v>323</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K68" s="5">
-        <v>0</v>
-      </c>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O68" s="49" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="1">
-        <v>50.1</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="37"/>
-      <c r="G69" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="5" t="s">
+      <c r="K69" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>41</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F70" t="s">
+        <v>702</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="K70" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1">
+        <v>40</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F71" t="s">
+        <v>701</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="N69" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="1">
-        <v>51</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" t="s">
-        <v>729</v>
-      </c>
-      <c r="F70" t="s">
-        <v>729</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70"/>
-      <c r="O70" s="49" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="1">
-        <v>52</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" t="s">
-        <v>730</v>
-      </c>
-      <c r="F71" t="s">
-        <v>730</v>
-      </c>
-      <c r="G71" t="s">
-        <v>730</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="O71" s="49" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="1">
-        <v>53</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" t="s">
-        <v>731</v>
-      </c>
-      <c r="F72" t="s">
-        <v>731</v>
-      </c>
-      <c r="G72" t="s">
-        <v>731</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I72" s="5" t="s">
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="P72" s="49" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="O72" s="49" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="1">
-        <v>54</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E73" t="s">
-        <v>732</v>
-      </c>
-      <c r="F73" t="s">
-        <v>732</v>
-      </c>
-      <c r="G73" t="s">
-        <v>732</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>1323</v>
-      </c>
       <c r="K73" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>1422</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="O73" s="49" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="N73"/>
+      <c r="P73" s="49" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>55</v>
+        <v>41.4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F74" t="s">
-        <v>322</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74"/>
       <c r="G74" t="s">
-        <v>322</v>
+        <v>1382</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>16</v>
+        <v>234</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K74" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="N74"/>
+      <c r="P74" s="49" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>56</v>
+        <v>41.2</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F75" t="s">
-        <v>323</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75"/>
       <c r="G75" t="s">
-        <v>323</v>
+        <v>1380</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="N75"/>
+      <c r="P75" s="49" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>57</v>
+        <v>41.3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="F76" t="s">
-        <v>705</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76"/>
       <c r="G76" t="s">
-        <v>705</v>
+        <v>1381</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I76" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J76" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O76" s="49" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="K76" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76"/>
+      <c r="P76" s="49" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="F77" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1160</v>
+        <v>700</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I77" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78"/>
+      <c r="G78" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>1180</v>
-      </c>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="O77" s="49" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="1">
-        <v>59</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>1323</v>
-      </c>
       <c r="K78" s="5" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="O78" s="51" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="N78" s="5"/>
+      <c r="P78" s="49" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>60</v>
+        <v>41.7</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1162</v>
+        <v>157</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79"/>
+      <c r="G79" t="s">
+        <v>1384</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I79" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M79" s="5"/>
+      <c r="N79"/>
+      <c r="P79" s="49" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J79" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="O79" s="49" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="1">
-        <v>61</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>1322</v>
-      </c>
       <c r="K80" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L80" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>1389</v>
+      </c>
       <c r="M80" s="5"/>
-      <c r="O80" s="49" t="s">
-        <v>1172</v>
+      <c r="N80"/>
+      <c r="P80" s="49" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>1164</v>
+        <v>322</v>
       </c>
       <c r="F81" t="s">
-        <v>1164</v>
+        <v>322</v>
+      </c>
+      <c r="G81" t="s">
+        <v>322</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K81" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>1323</v>
+      </c>
       <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="O81" s="49" t="s">
-        <v>1174</v>
-      </c>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1165</v>
+        <v>323</v>
       </c>
       <c r="F82" t="s">
-        <v>1165</v>
+        <v>323</v>
+      </c>
+      <c r="G82" t="s">
+        <v>323</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J82" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="5" t="s">
-        <v>1322</v>
-      </c>
       <c r="K82" s="5" t="s">
-        <v>1202</v>
+        <v>1323</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="O82" s="49" t="s">
-        <v>1203</v>
-      </c>
+      <c r="N82" s="5"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1">
-        <v>64</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1166</v>
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" t="s">
+        <v>316</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1524</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>16</v>
+        <v>251</v>
+      </c>
+      <c r="I83" t="s">
+        <v>317</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>1322</v>
+        <v>20</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="O83" s="49" t="s">
-        <v>1204</v>
+        <v>164</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1">
-        <v>65</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1167</v>
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="G84" t="s">
-        <v>1167</v>
+        <v>1525</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>20</v>
+        <v>253</v>
+      </c>
+      <c r="I84" t="s">
+        <v>317</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="M84" s="5" t="s">
-        <v>145</v>
+        <v>1534</v>
+      </c>
+      <c r="O84" s="5"/>
+      <c r="P84" s="60" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1">
-        <v>66</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1168</v>
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>317</v>
+      </c>
+      <c r="C85" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1526</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I85" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I85" t="s">
+        <v>317</v>
+      </c>
+      <c r="J85" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="5" t="s">
-        <v>1322</v>
-      </c>
       <c r="K85" s="5" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L85" s="5"/>
+        <v>164</v>
+      </c>
       <c r="M85" s="5"/>
-      <c r="O85" s="49" t="s">
-        <v>1177</v>
-      </c>
+      <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1">
-        <v>67</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1169</v>
+        <v>112</v>
+      </c>
+      <c r="B86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" t="s">
+        <v>316</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1528</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>16</v>
+        <v>260</v>
+      </c>
+      <c r="I86" t="s">
+        <v>317</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>1322</v>
+        <v>20</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="O86" s="51" t="s">
-        <v>1178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <v>68</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="55" t="s">
-        <v>289</v>
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" t="s">
+        <v>316</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="G87" t="s">
-        <v>1410</v>
+        <v>1527</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>16</v>
+        <v>258</v>
+      </c>
+      <c r="I87" t="s">
+        <v>317</v>
       </c>
       <c r="J87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O87" s="50"/>
-      <c r="P87"/>
+      <c r="M87" s="5"/>
+      <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <v>69</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" s="55" t="s">
-        <v>291</v>
+        <v>106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>317</v>
+      </c>
+      <c r="C88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="G88" t="s">
-        <v>1411</v>
-      </c>
-      <c r="H88" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="I88" s="47" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I88" t="s">
+        <v>317</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="K88" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K88"/>
-      <c r="L88" s="47" t="s">
-        <v>1419</v>
-      </c>
-      <c r="M88"/>
-      <c r="O88" s="50" t="s">
-        <v>1420</v>
-      </c>
-      <c r="P88"/>
+      <c r="M88" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <v>70</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" s="55" t="s">
-        <v>294</v>
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" t="s">
+        <v>316</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="G89" t="s">
-        <v>1412</v>
-      </c>
-      <c r="H89" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="I89" s="47" t="s">
-        <v>16</v>
+        <v>1529</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I89" t="s">
+        <v>317</v>
       </c>
       <c r="J89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K89"/>
-      <c r="L89" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="M89"/>
-      <c r="O89" s="50" t="s">
-        <v>1421</v>
-      </c>
-      <c r="P89"/>
+      <c r="M89" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <v>71</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D90" s="55" t="s">
-        <v>297</v>
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" t="s">
+        <v>316</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="G90" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H90" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="I90" s="47" t="s">
-        <v>20</v>
+        <v>1523</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I90" t="s">
+        <v>317</v>
       </c>
       <c r="J90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K90"/>
-      <c r="L90" s="47"/>
-      <c r="M90"/>
-      <c r="N90" s="47" t="s">
-        <v>299</v>
+      <c r="M90" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="O90" s="5"/>
+      <c r="P90" s="49" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <v>72</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D91" s="55" t="s">
-        <v>300</v>
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>317</v>
+      </c>
+      <c r="C91" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>1414</v>
-      </c>
-      <c r="H91" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="I91" s="47" t="s">
-        <v>20</v>
+        <v>322</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>317</v>
       </c>
       <c r="J91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K91"/>
-      <c r="L91" s="47"/>
-      <c r="M91"/>
-      <c r="N91" s="47"/>
+      <c r="M91" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O91" s="5"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <v>73</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>302</v>
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" t="s">
+        <v>316</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>1415</v>
-      </c>
-      <c r="H92" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="I92" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s">
+        <v>317</v>
+      </c>
+      <c r="J92" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J92" s="5" t="s">
+      <c r="K92" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K92"/>
-      <c r="L92" s="47"/>
-      <c r="M92"/>
-      <c r="N92" s="47"/>
+      <c r="M92" s="5"/>
+      <c r="O92" s="5"/>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <v>74</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>304</v>
+        <v>121</v>
+      </c>
+      <c r="B93" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="G93" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H93" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="I93" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
+        <v>319</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J93" s="5" t="s">
+      <c r="K93" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K93"/>
-      <c r="L93" s="47" t="s">
-        <v>691</v>
-      </c>
-      <c r="M93"/>
-      <c r="N93" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="O93" s="5">
-        <v>10012735</v>
+      <c r="M93" s="5"/>
+      <c r="O93" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <v>75</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D94" s="55" t="s">
-        <v>306</v>
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>319</v>
+      </c>
+      <c r="C94" t="s">
+        <v>318</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="G94" t="s">
-        <v>1417</v>
-      </c>
-      <c r="H94" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="I94" s="47" t="s">
-        <v>20</v>
+        <v>1537</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I94" t="s">
+        <v>319</v>
       </c>
       <c r="J94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L94" s="47" t="s">
-        <v>691</v>
-      </c>
-      <c r="N94" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="O94" s="5" t="s">
-        <v>116</v>
+      <c r="M94" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="O94" s="5"/>
+      <c r="P94" s="49" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <v>76</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D95" s="55" t="s">
-        <v>308</v>
+        <v>122</v>
+      </c>
+      <c r="B95" t="s">
+        <v>319</v>
+      </c>
+      <c r="C95" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="G95" t="s">
-        <v>1418</v>
-      </c>
-      <c r="H95" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="I95" s="47" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s">
+        <v>319</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J95" s="5" t="s">
+      <c r="K95" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L95" s="47" t="s">
-        <v>691</v>
-      </c>
-      <c r="N95" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="O95" s="5">
-        <v>10018836</v>
-      </c>
+      <c r="M95" s="5"/>
+      <c r="O95" s="5"/>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D96" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I96" t="s">
+        <v>319</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="O96" s="5"/>
+      <c r="P96" s="49" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <v>119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>319</v>
+      </c>
+      <c r="C97" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I97" t="s">
+        <v>319</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="O97" s="5"/>
+      <c r="P97" s="49" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <v>117</v>
+      </c>
+      <c r="B98" t="s">
+        <v>319</v>
+      </c>
+      <c r="C98" t="s">
+        <v>318</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I98" t="s">
+        <v>319</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O98" s="5"/>
+      <c r="P98" s="49" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <v>116</v>
+      </c>
+      <c r="B99" t="s">
+        <v>319</v>
+      </c>
+      <c r="C99" t="s">
+        <v>318</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I99" t="s">
+        <v>319</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O99" s="5"/>
+      <c r="P99" s="49" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1">
+        <v>114</v>
+      </c>
+      <c r="B100" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" t="s">
+        <v>318</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G100" t="s">
         <v>322</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="I100" t="s">
+        <v>319</v>
+      </c>
+      <c r="J100" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J96" s="5" t="s">
+      <c r="K100" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L96" s="5" t="s">
+      <c r="M100" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N96" s="5"/>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="1">
+      <c r="O100" s="5"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1">
+        <v>115</v>
+      </c>
+      <c r="B101" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s">
+        <v>319</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M101" s="5"/>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102"/>
+      <c r="G102" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H102" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J102" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L102" s="5"/>
+      <c r="M102" s="53" t="s">
+        <v>1408</v>
+      </c>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1">
+        <v>45</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F103" t="s">
+        <v>707</v>
+      </c>
+      <c r="G103" t="s">
+        <v>707</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J103" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="P103" s="49" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1">
+        <v>44</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F104" t="s">
+        <v>706</v>
+      </c>
+      <c r="G104" t="s">
+        <v>706</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J104" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M104" s="53" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N104" s="5"/>
+      <c r="P104" s="49" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105"/>
+      <c r="G105" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H105" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J105" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L105" s="5"/>
+      <c r="M105" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1">
+        <v>43</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F106" t="s">
+        <v>705</v>
+      </c>
+      <c r="G106" t="s">
+        <v>705</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L106" s="5"/>
+      <c r="M106" s="53" t="s">
+        <v>1395</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P106" s="49" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107"/>
+      <c r="G107" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H107" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J107" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M107" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="N107" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108"/>
+      <c r="G108" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H108" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J108" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M108" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="N108" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1">
+        <v>42</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F109" t="s">
+        <v>322</v>
+      </c>
+      <c r="G109" t="s">
+        <v>322</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1">
+        <v>50</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="37" t="s">
+        <v>728</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L110" s="5">
+        <v>0</v>
+      </c>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P110" s="49" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" s="37"/>
+      <c r="G111" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="O111" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1">
+        <v>52</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" t="s">
+        <v>730</v>
+      </c>
+      <c r="F112" t="s">
+        <v>730</v>
+      </c>
+      <c r="G112" t="s">
+        <v>730</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B97" t="s">
-        <v>310</v>
-      </c>
-      <c r="C97" t="s">
-        <v>311</v>
-      </c>
-      <c r="D97" s="13" t="s">
+      <c r="I112" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="P112" s="49" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1">
+        <v>53</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" t="s">
+        <v>731</v>
+      </c>
+      <c r="F113" t="s">
+        <v>731</v>
+      </c>
+      <c r="G113" t="s">
+        <v>731</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="P113" s="49" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1">
+        <v>48</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" t="s">
+        <v>726</v>
+      </c>
+      <c r="F114" t="s">
+        <v>726</v>
+      </c>
+      <c r="G114" t="s">
+        <v>726</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="N114" s="5"/>
+      <c r="P114" s="49" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1">
+        <v>49</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" t="s">
+        <v>727</v>
+      </c>
+      <c r="F115" t="s">
+        <v>727</v>
+      </c>
+      <c r="G115" t="s">
+        <v>727</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="P115" s="49" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1">
+        <v>51</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E116" t="s">
+        <v>729</v>
+      </c>
+      <c r="F116" t="s">
+        <v>729</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116"/>
+      <c r="P116" s="49" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1">
+        <v>54</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" t="s">
+        <v>732</v>
+      </c>
+      <c r="F117" t="s">
+        <v>732</v>
+      </c>
+      <c r="G117" t="s">
+        <v>732</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N117" s="5"/>
+      <c r="P117" s="49" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1">
+        <v>46</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>322</v>
+      </c>
+      <c r="F118" t="s">
+        <v>322</v>
+      </c>
+      <c r="G118" t="s">
+        <v>322</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="1">
+        <v>47</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G97" t="s">
+      <c r="E119" t="s">
         <v>323</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="F119" t="s">
+        <v>323</v>
+      </c>
+      <c r="G119" t="s">
+        <v>323</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="I119" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J119" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J97" s="5" t="s">
+      <c r="K119" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="1">
+        <v>65</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1">
+        <v>73</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H121" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J121" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L97" s="5"/>
-      <c r="N97" s="5"/>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="1">
-        <v>79</v>
-      </c>
-      <c r="B98" t="s">
-        <v>310</v>
-      </c>
-      <c r="C98" t="s">
-        <v>311</v>
-      </c>
-      <c r="D98" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I98" s="5" t="s">
+      <c r="L121"/>
+      <c r="M121" s="47"/>
+      <c r="N121"/>
+      <c r="O121" s="47"/>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1">
+        <v>72</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D122" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H122" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J122" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J98" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="L98" s="5"/>
-      <c r="N98" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="1">
-        <v>80</v>
-      </c>
-      <c r="B99" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" t="s">
-        <v>311</v>
-      </c>
-      <c r="D99" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I99" s="5" t="s">
+      <c r="K122" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L122"/>
+      <c r="M122" s="47"/>
+      <c r="N122"/>
+      <c r="O122" s="47"/>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="1">
+        <v>71</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J123" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J99" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="L99" s="5"/>
-      <c r="N99" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="1">
-        <v>81</v>
-      </c>
-      <c r="B100" t="s">
-        <v>310</v>
-      </c>
-      <c r="C100" t="s">
-        <v>311</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G100" t="s">
-        <v>1491</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I100" s="5" t="s">
+      <c r="K123" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L123"/>
+      <c r="M123" s="47"/>
+      <c r="N123"/>
+      <c r="O123" s="47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="1">
+        <v>74</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H124" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J124" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="K124" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L100" s="5" t="s">
+      <c r="L124"/>
+      <c r="M124" s="47" t="s">
         <v>691</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N124"/>
+      <c r="O124" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="O100" s="49" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="1">
-        <v>82</v>
-      </c>
-      <c r="B101" t="s">
-        <v>310</v>
-      </c>
-      <c r="C101" t="s">
-        <v>311</v>
-      </c>
-      <c r="D101" s="13"/>
-      <c r="G101" s="37" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I101" s="5" t="s">
+      <c r="P124" s="5">
+        <v>10012735</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="1">
+        <v>75</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D125" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H125" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J125" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="5" t="s">
+      <c r="K125" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L101" s="5"/>
-      <c r="N101" s="5"/>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="1">
-        <v>83</v>
-      </c>
-      <c r="B102" t="s">
-        <v>310</v>
-      </c>
-      <c r="C102" t="s">
-        <v>311</v>
-      </c>
-      <c r="D102" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I102" s="5" t="s">
+      <c r="M125" s="47" t="s">
+        <v>691</v>
+      </c>
+      <c r="O125" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="P125" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="1">
+        <v>76</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H126" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J126" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J102" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="L102" s="5" t="s">
+      <c r="K126" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M126" s="47" t="s">
         <v>691</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="O126" s="47" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="1">
-        <v>84</v>
-      </c>
-      <c r="B103" t="s">
-        <v>310</v>
-      </c>
-      <c r="C103" t="s">
-        <v>311</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G103" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I103" s="5" t="s">
+      <c r="P126" s="5">
+        <v>10018836</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="1">
+        <v>64</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="P127" s="49" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="1">
+        <v>63</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J128" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J103" s="5" t="s">
+      <c r="K128" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="P128" s="49" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="1">
+        <v>57</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F129" t="s">
+        <v>705</v>
+      </c>
+      <c r="G129" t="s">
+        <v>705</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P129" s="49" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="1">
+        <v>68</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L103" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O103" s="49" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="1">
-        <v>85</v>
-      </c>
-      <c r="B104" t="s">
-        <v>313</v>
-      </c>
-      <c r="C104" t="s">
-        <v>312</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="P130" s="50"/>
+      <c r="Q130"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="1">
+        <v>70</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H131" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J131" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L131"/>
+      <c r="M131" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="N131"/>
+      <c r="P131" s="50" t="s">
+        <v>1421</v>
+      </c>
+      <c r="Q131"/>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1">
+        <v>69</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H132" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J132" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L132"/>
+      <c r="M132" s="47" t="s">
+        <v>1419</v>
+      </c>
+      <c r="N132"/>
+      <c r="P132" s="50" t="s">
+        <v>1420</v>
+      </c>
+      <c r="Q132"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="1">
+        <v>67</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="P133" s="51" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1">
+        <v>66</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="P134" s="49" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="1">
+        <v>59</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="P135" s="51" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="1">
+        <v>58</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="P136" s="49" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="1">
+        <v>55</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G104" t="s">
+      <c r="E137" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="F137" t="s">
+        <v>322</v>
+      </c>
+      <c r="G137" t="s">
+        <v>322</v>
+      </c>
+      <c r="H137" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="I137" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J137" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J104" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L104" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N104" s="5"/>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="1">
-        <v>86</v>
-      </c>
-      <c r="B105" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" t="s">
-        <v>312</v>
-      </c>
-      <c r="D105" s="13" t="s">
+      <c r="K137" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1">
+        <v>56</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D138" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G105" t="s">
+      <c r="E138" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="F138" t="s">
+        <v>323</v>
+      </c>
+      <c r="G138" t="s">
+        <v>323</v>
+      </c>
+      <c r="H138" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I105" s="5" t="s">
+      <c r="I138" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J138" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J105" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L105" s="5"/>
-      <c r="N105" s="5"/>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="1">
-        <v>87</v>
-      </c>
-      <c r="B106" t="s">
-        <v>313</v>
-      </c>
-      <c r="C106" t="s">
-        <v>312</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G106" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I106" s="5" t="s">
+      <c r="K138" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="1">
+        <v>62</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J139" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J106" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L106" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N106" s="5"/>
-      <c r="O106" s="49" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="1">
-        <v>88</v>
-      </c>
-      <c r="B107" t="s">
-        <v>313</v>
-      </c>
-      <c r="C107" t="s">
-        <v>312</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I107" s="5" t="s">
+      <c r="K139" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P139" s="49" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="1">
+        <v>61</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J140" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J107" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N107" s="5"/>
-      <c r="O107" s="49" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="1">
-        <v>89</v>
-      </c>
-      <c r="B108" t="s">
-        <v>313</v>
-      </c>
-      <c r="C108" t="s">
-        <v>312</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>324</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I108" s="5" t="s">
+      <c r="K140" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="P140" s="49" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="1">
+        <v>60</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J141" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J108" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L108" s="5"/>
-      <c r="N108" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="1">
-        <v>90</v>
-      </c>
-      <c r="B109" t="s">
-        <v>313</v>
-      </c>
-      <c r="C109" t="s">
-        <v>312</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G109" t="s">
-        <v>1494</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L109" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="N109" s="5"/>
-      <c r="O109" s="49" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="1">
-        <v>91</v>
-      </c>
-      <c r="B110" t="s">
-        <v>313</v>
-      </c>
-      <c r="C110" t="s">
-        <v>312</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G110" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="N110" s="5"/>
-      <c r="O110" s="49" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="1">
-        <v>92</v>
-      </c>
-      <c r="B111" t="s">
-        <v>313</v>
-      </c>
-      <c r="C111" t="s">
-        <v>312</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L111" s="5" t="s">
-        <v>1482</v>
-      </c>
-      <c r="N111" s="5"/>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="1">
-        <v>93</v>
-      </c>
-      <c r="B112" t="s">
-        <v>315</v>
-      </c>
-      <c r="C112" t="s">
-        <v>314</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>322</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L112" s="5"/>
-      <c r="N112" s="5"/>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="1">
-        <v>94</v>
-      </c>
-      <c r="B113" t="s">
-        <v>315</v>
-      </c>
-      <c r="C113" t="s">
-        <v>314</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>323</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J113" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L113" s="5"/>
-      <c r="N113" s="5"/>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="1">
-        <v>95</v>
-      </c>
-      <c r="B114" t="s">
-        <v>315</v>
-      </c>
-      <c r="C114" t="s">
-        <v>314</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G114" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L114" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N114" s="5"/>
-      <c r="O114" s="49" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="1">
-        <v>96</v>
-      </c>
-      <c r="B115" t="s">
-        <v>315</v>
-      </c>
-      <c r="C115" t="s">
-        <v>314</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G115" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L115" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N115" s="5"/>
-      <c r="O115" s="49" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" s="1">
-        <v>97</v>
-      </c>
-      <c r="B116" t="s">
-        <v>315</v>
-      </c>
-      <c r="C116" t="s">
-        <v>314</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1485</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L116" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="N116" s="5"/>
-      <c r="O116" s="49" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="1">
-        <v>98</v>
-      </c>
-      <c r="B117" t="s">
-        <v>315</v>
-      </c>
-      <c r="C117" t="s">
-        <v>314</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G117" t="s">
-        <v>1486</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L117" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N117" s="5"/>
-      <c r="O117" s="49" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="1">
-        <v>99</v>
-      </c>
-      <c r="B118" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" t="s">
-        <v>314</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>324</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L118" s="5"/>
-      <c r="N118" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="1">
-        <v>100</v>
-      </c>
-      <c r="B119" t="s">
-        <v>315</v>
-      </c>
-      <c r="C119" t="s">
-        <v>314</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G119" t="s">
-        <v>1487</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="49" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="1">
-        <v>101</v>
-      </c>
-      <c r="B120" t="s">
-        <v>315</v>
-      </c>
-      <c r="C120" t="s">
-        <v>314</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G120" t="s">
-        <v>1488</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>1519</v>
-      </c>
-      <c r="N120" s="5"/>
-      <c r="O120" s="49" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="1">
-        <v>102</v>
-      </c>
-      <c r="B121" t="s">
-        <v>315</v>
-      </c>
-      <c r="C121" t="s">
-        <v>314</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G121" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N121" s="5"/>
-      <c r="O121" s="49" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="1">
-        <v>103</v>
-      </c>
-      <c r="B122" t="s">
-        <v>315</v>
-      </c>
-      <c r="C122" t="s">
-        <v>314</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G122" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L122" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N122" s="5"/>
-      <c r="O122" s="49" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="1">
-        <v>104</v>
-      </c>
-      <c r="B123" t="s">
-        <v>317</v>
-      </c>
-      <c r="C123" t="s">
-        <v>316</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>322</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L123" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N123" s="5"/>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="1">
-        <v>105</v>
-      </c>
-      <c r="B124" t="s">
-        <v>317</v>
-      </c>
-      <c r="C124" t="s">
-        <v>316</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>323</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L124" s="5"/>
-      <c r="N124" s="5"/>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="1">
-        <v>106</v>
-      </c>
-      <c r="B125" t="s">
-        <v>317</v>
-      </c>
-      <c r="C125" t="s">
-        <v>316</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G125" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L125" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N125" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="1">
-        <v>107</v>
-      </c>
-      <c r="B126" t="s">
-        <v>317</v>
-      </c>
-      <c r="C126" t="s">
-        <v>316</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="G126" t="s">
-        <v>1523</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L126" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="N126" s="5"/>
-      <c r="O126" s="49" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="1">
-        <v>108</v>
-      </c>
-      <c r="B127" t="s">
-        <v>317</v>
-      </c>
-      <c r="C127" t="s">
-        <v>316</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="G127" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L127" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N127" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="1">
-        <v>109</v>
-      </c>
-      <c r="B128" t="s">
-        <v>317</v>
-      </c>
-      <c r="C128" t="s">
-        <v>316</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="G128" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>1534</v>
-      </c>
-      <c r="N128" s="5"/>
-      <c r="O128" s="60" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="1">
-        <v>110</v>
-      </c>
-      <c r="B129" t="s">
-        <v>317</v>
-      </c>
-      <c r="C129" t="s">
-        <v>316</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G129" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L129" s="5"/>
-      <c r="N129" s="5"/>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="1">
-        <v>111</v>
-      </c>
-      <c r="B130" t="s">
-        <v>317</v>
-      </c>
-      <c r="C130" t="s">
-        <v>316</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G130" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L130" s="5"/>
-      <c r="N130" s="5"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" s="1">
-        <v>112</v>
-      </c>
-      <c r="B131" t="s">
-        <v>317</v>
-      </c>
-      <c r="C131" t="s">
-        <v>316</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="G131" t="s">
-        <v>1528</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L131" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="N131" s="5"/>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="A132" s="1">
-        <v>113</v>
-      </c>
-      <c r="B132" t="s">
-        <v>317</v>
-      </c>
-      <c r="C132" t="s">
-        <v>316</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1529</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L132" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="N132" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" s="1">
-        <v>114</v>
-      </c>
-      <c r="B133" t="s">
-        <v>319</v>
-      </c>
-      <c r="C133" t="s">
-        <v>318</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>322</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J133" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L133" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N133" s="5"/>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" s="1">
-        <v>115</v>
-      </c>
-      <c r="B134" t="s">
-        <v>319</v>
-      </c>
-      <c r="C134" t="s">
-        <v>318</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>323</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J134" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L134" s="5"/>
-      <c r="N134" s="5"/>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" s="1">
-        <v>116</v>
-      </c>
-      <c r="B135" t="s">
-        <v>319</v>
-      </c>
-      <c r="C135" t="s">
-        <v>318</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G135" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L135" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N135" s="5"/>
-      <c r="O135" s="49" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" s="1">
-        <v>117</v>
-      </c>
-      <c r="B136" t="s">
-        <v>319</v>
-      </c>
-      <c r="C136" t="s">
-        <v>318</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L136" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N136" s="5"/>
-      <c r="O136" s="49" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" s="1">
-        <v>118</v>
-      </c>
-      <c r="B137" t="s">
-        <v>319</v>
-      </c>
-      <c r="C137" t="s">
-        <v>318</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="K141" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="P141" s="49" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="P143" t="s">
         <v>1535</v>
       </c>
-      <c r="H137" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L137" s="5" t="s">
-        <v>1554</v>
-      </c>
-      <c r="N137" s="5"/>
-      <c r="O137" s="49" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="1">
-        <v>119</v>
-      </c>
-      <c r="B138" t="s">
-        <v>319</v>
-      </c>
-      <c r="C138" t="s">
-        <v>318</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G138" t="s">
+    </row>
+    <row r="144" spans="1:17">
+      <c r="P144" t="s">
         <v>1536</v>
       </c>
-      <c r="H138" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L138" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="N138" s="5"/>
-      <c r="O138" s="49" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="1">
-        <v>120</v>
-      </c>
-      <c r="B139" t="s">
-        <v>319</v>
-      </c>
-      <c r="C139" t="s">
-        <v>318</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G139" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L139" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="N139" s="5"/>
-      <c r="O139" s="49" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="1">
-        <v>121</v>
-      </c>
-      <c r="B140" t="s">
-        <v>319</v>
-      </c>
-      <c r="C140" t="s">
-        <v>318</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>324</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J140" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L140" s="5"/>
-      <c r="N140" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" s="1">
-        <v>122</v>
-      </c>
-      <c r="B141" t="s">
-        <v>319</v>
-      </c>
-      <c r="C141" t="s">
-        <v>318</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1538</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J141" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L141" s="5"/>
-      <c r="N141" s="5"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="O143" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="O144" t="s">
-        <v>1536</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Q141">
+    <sortCondition ref="B2:B141"/>
+    <sortCondition ref="H2:H141"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -18746,8 +19248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M111" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O115" sqref="N1:S1048576"/>
+    <sheetView topLeftCell="M111" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="S126" sqref="S126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
